--- a/data.xlsx
+++ b/data.xlsx
@@ -14,48 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Scores</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Joan</t>
-  </si>
-  <si>
-    <t>Clare</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Jude</t>
-  </si>
-  <si>
-    <t>Kelvin</t>
-  </si>
-  <si>
-    <t>Prosper</t>
-  </si>
-  <si>
-    <t>Joseph</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+  <si>
+    <t>R_D_Spend</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Marketing_spend</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
 </sst>
 </file>
@@ -413,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,175 +414,208 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>165349</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>136897.8</v>
       </c>
       <c r="D2">
-        <v>5.5</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>471784.1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>192261.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>162597</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>151377.59</v>
       </c>
       <c r="D3">
+        <v>443898.53</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>191792.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>153441</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>101145.55</v>
       </c>
       <c r="D4">
-        <v>5.4</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>407934.54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>191050.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>144372</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>118671.85</v>
       </c>
       <c r="D5">
-        <v>5.9</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>383199.62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>182901.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>142107</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>91391.77</v>
       </c>
       <c r="D6">
-        <v>5.6</v>
-      </c>
-      <c r="E6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>366168.42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>166187.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>131876</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>99814.71000000001</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
-      </c>
-      <c r="E7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>362861.36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>156991.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>134615</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>147198.87</v>
       </c>
       <c r="D8">
-        <v>5.9</v>
-      </c>
-      <c r="E8">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>127716.82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>156122.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>130298</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>145530.06</v>
       </c>
       <c r="D9">
-        <v>5.8</v>
-      </c>
-      <c r="E9">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>323876.29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>155752.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10">
+        <v>120542</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>148718.95</v>
       </c>
       <c r="D10">
-        <v>6.1</v>
-      </c>
-      <c r="E10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>304981.62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>152211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11">
+        <v>123334</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>108679.17</v>
       </c>
       <c r="D11">
-        <v>5.9</v>
-      </c>
-      <c r="E11">
-        <v>68</v>
+        <v>133245.65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>149759</v>
       </c>
     </row>
   </sheetData>
